--- a/documents/design/Verrukkulluk Sheet.xlsx
+++ b/documents/design/Verrukkulluk Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-verrukkulluk\documents\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1582075-6550-478D-A24A-87B612EE02E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE50561-C3F5-4A57-B792-8651F69C0156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6330" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="799" xr2:uid="{ED6930B3-2868-4511-92A3-183D21B7C83B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="799" activeTab="6" xr2:uid="{ED6930B3-2868-4511-92A3-183D21B7C83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
@@ -2212,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22785517-525A-446C-9522-04A8D5612B42}">
   <dimension ref="C18:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="83" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="83" workbookViewId="0">
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
@@ -3087,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A5A839-F000-4C11-881D-FC8692D957C1}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
